--- a/egts_copy.xlsx
+++ b/egts_copy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="373">
   <si>
     <t xml:space="preserve">Версия прошивки оборудования</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ответ от сервера на пакет авторизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100030b001000000000b300000000000006000000580101000300000000d9d1</t>
   </si>
   <si>
     <t xml:space="preserve">1, 0, 3, 11, 0, 16, 0, 0, 0, 0, 179, 0, 0, 0, 6, 0, 0, 0, 88, 1, 1, 0, 3, 0, 0, 0, 0, 217, 209</t>
@@ -1546,8 +1549,8 @@
   </sheetPr>
   <dimension ref="A1:U488"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q126" activeCellId="0" sqref="Q126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3222,13 +3225,16 @@
       </c>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="6"/>
+      <c r="L72" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="Q72" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="R77" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S77" s="15"/>
       <c r="T77" s="15"/>
@@ -3457,10 +3463,10 @@
         <v>2</v>
       </c>
       <c r="Q80" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="15"/>
@@ -3622,7 +3628,7 @@
         <v>179</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S86" s="15"/>
       <c r="T86" s="15"/>
@@ -3671,7 +3677,7 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="17"/>
       <c r="C89" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
@@ -3726,7 +3732,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="17"/>
       <c r="C91" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
@@ -3756,7 +3762,7 @@
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="17"/>
       <c r="C92" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
@@ -3779,7 +3785,7 @@
         <v>34</v>
       </c>
       <c r="S92" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T92" s="15"/>
     </row>
@@ -3906,10 +3912,10 @@
         <v>2</v>
       </c>
       <c r="Q97" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="15"/>
@@ -3971,7 +3977,7 @@
         <v>88</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S99" s="15"/>
       <c r="T99" s="15"/>
@@ -4310,10 +4316,10 @@
         <v>2</v>
       </c>
       <c r="Q111" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R111" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S111" s="15"/>
       <c r="T111" s="15"/>
@@ -4369,7 +4375,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -4428,7 +4434,7 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
@@ -4453,7 +4459,7 @@
         <v>50</v>
       </c>
       <c r="S116" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T116" s="15"/>
     </row>
@@ -4463,7 +4469,7 @@
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
@@ -4488,7 +4494,7 @@
         <v>34</v>
       </c>
       <c r="S117" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T117" s="15"/>
     </row>
@@ -4510,7 +4516,7 @@
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="17"/>
       <c r="C119" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -4636,7 +4642,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -4655,17 +4661,17 @@
         <v>0.2</v>
       </c>
       <c r="Q125" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R125" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S125" s="15"/>
       <c r="T125" s="15"/>
     </row>
     <row r="127" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S127" s="8"/>
     </row>
@@ -4683,7 +4689,7 @@
     <row r="130" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="6"/>
       <c r="R130" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,7 +4741,7 @@
         <v>28</v>
       </c>
       <c r="U132" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4902,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="R138" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S138" s="15"/>
       <c r="T138" s="15"/>
@@ -4929,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="R139" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S139" s="15"/>
       <c r="T139" s="15"/>
@@ -5058,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S144" s="15"/>
       <c r="T144" s="15"/>
@@ -5281,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="R153" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S153" s="31"/>
       <c r="T153" s="15"/>
@@ -5310,11 +5316,11 @@
         <v>2</v>
       </c>
       <c r="R154" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S154" s="15"/>
       <c r="T154" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U154" s="15"/>
     </row>
@@ -5341,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="R155" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S155" s="15"/>
       <c r="T155" s="15"/>
@@ -5403,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="R157" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S157" s="15" t="s">
         <v>84</v>
@@ -5436,14 +5442,14 @@
         <v>4</v>
       </c>
       <c r="R158" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S158" s="15"/>
       <c r="T158" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5469,14 +5475,14 @@
         <v>4</v>
       </c>
       <c r="R159" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S159" s="15"/>
       <c r="T159" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U159" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5691,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="R167" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S167" s="15"/>
       <c r="T167" s="15"/>
@@ -5748,7 +5754,7 @@
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
       <c r="F170" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
@@ -5805,7 +5811,7 @@
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
       <c r="F172" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
@@ -5824,11 +5830,11 @@
         <v>4</v>
       </c>
       <c r="R172" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S172" s="31"/>
       <c r="T172" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U172" s="15"/>
     </row>
@@ -5838,7 +5844,7 @@
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
       <c r="F173" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
@@ -5857,14 +5863,14 @@
         <v>4</v>
       </c>
       <c r="R173" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S173" s="15"/>
       <c r="T173" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U173" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5873,7 +5879,7 @@
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="F174" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
@@ -5892,14 +5898,14 @@
         <v>4</v>
       </c>
       <c r="R174" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S174" s="15"/>
       <c r="T174" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U174" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5908,7 +5914,7 @@
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
       <c r="F175" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
@@ -5927,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="R175" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S175" s="15"/>
       <c r="T175" s="15"/>
@@ -5939,28 +5945,28 @@
       <c r="D176" s="20"/>
       <c r="E176" s="20"/>
       <c r="F176" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K176" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L176" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M176" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N176" s="24"/>
       <c r="O176" s="24"/>
@@ -5976,7 +5982,7 @@
       <c r="D177" s="20"/>
       <c r="E177" s="20"/>
       <c r="F177" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
@@ -5999,10 +6005,10 @@
       </c>
       <c r="S177" s="15"/>
       <c r="T177" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U177" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6011,13 +6017,13 @@
       <c r="D178" s="20"/>
       <c r="E178" s="20"/>
       <c r="F178" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
@@ -6038,7 +6044,7 @@
       <c r="D179" s="20"/>
       <c r="E179" s="20"/>
       <c r="F179" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G179" s="19"/>
       <c r="H179" s="19"/>
@@ -6057,14 +6063,14 @@
         <v>1</v>
       </c>
       <c r="R179" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S179" s="15"/>
       <c r="T179" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U179" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6073,7 +6079,7 @@
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
       <c r="F180" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G180" s="19"/>
       <c r="H180" s="19"/>
@@ -6092,14 +6098,14 @@
         <v>3</v>
       </c>
       <c r="R180" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S180" s="15"/>
       <c r="T180" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U180" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6108,7 +6114,7 @@
       <c r="D181" s="20"/>
       <c r="E181" s="20"/>
       <c r="F181" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G181" s="19"/>
       <c r="H181" s="19"/>
@@ -6127,14 +6133,14 @@
         <v>1</v>
       </c>
       <c r="R181" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S181" s="15"/>
       <c r="T181" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U181" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6143,7 +6149,7 @@
       <c r="D182" s="20"/>
       <c r="E182" s="20"/>
       <c r="F182" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
@@ -6174,7 +6180,7 @@
       <c r="D183" s="20"/>
       <c r="E183" s="20"/>
       <c r="F183" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
@@ -6193,14 +6199,14 @@
         <v>3</v>
       </c>
       <c r="R183" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S183" s="15"/>
       <c r="T183" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U183" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6209,7 +6215,7 @@
       <c r="D184" s="20"/>
       <c r="E184" s="20"/>
       <c r="F184" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G184" s="19"/>
       <c r="H184" s="19"/>
@@ -6222,7 +6228,7 @@
         <v>53</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P184" s="19" t="n">
         <v>2</v>
@@ -6327,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="R188" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S188" s="15"/>
       <c r="T188" s="15"/>
@@ -6357,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="R189" s="34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S189" s="15"/>
       <c r="T189" s="15"/>
@@ -6414,7 +6420,7 @@
       <c r="D192" s="20"/>
       <c r="E192" s="20"/>
       <c r="F192" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20"/>
@@ -6472,24 +6478,24 @@
       <c r="D194" s="20"/>
       <c r="E194" s="20"/>
       <c r="F194" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G194" s="19"/>
       <c r="H194" s="19"/>
       <c r="I194" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J194" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K194" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L194" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M194" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N194" s="19" t="s">
         <v>68</v>
@@ -6501,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="R194" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S194" s="15"/>
       <c r="T194" s="15"/>
@@ -6513,7 +6519,7 @@
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
       <c r="F195" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G195" s="19"/>
       <c r="H195" s="19"/>
@@ -6542,7 +6548,7 @@
       <c r="D196" s="20"/>
       <c r="E196" s="20"/>
       <c r="F196" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G196" s="19"/>
       <c r="H196" s="19"/>
@@ -6562,13 +6568,13 @@
       </c>
       <c r="R196" s="34"/>
       <c r="S196" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T196" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U196" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6577,7 +6583,7 @@
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
       <c r="F197" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G197" s="19"/>
       <c r="H197" s="19"/>
@@ -6597,13 +6603,13 @@
       </c>
       <c r="R197" s="34"/>
       <c r="S197" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T197" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U197" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6612,7 +6618,7 @@
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
       <c r="F198" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G198" s="19"/>
       <c r="H198" s="19"/>
@@ -6631,14 +6637,14 @@
         <v>1</v>
       </c>
       <c r="R198" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S198" s="15"/>
       <c r="T198" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U198" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6647,7 +6653,7 @@
       <c r="D199" s="20"/>
       <c r="E199" s="20"/>
       <c r="F199" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="19"/>
@@ -6767,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="R203" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S203" s="31"/>
       <c r="T203" s="15"/>
@@ -6797,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="R204" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S204" s="15"/>
       <c r="T204" s="15"/>
@@ -6854,7 +6860,7 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
@@ -6911,28 +6917,28 @@
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
       <c r="F209" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G209" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H209" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I209" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J209" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K209" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L209" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M209" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N209" s="19" t="s">
         <v>30</v>
@@ -6956,7 +6962,7 @@
       <c r="D210" s="20"/>
       <c r="E210" s="20"/>
       <c r="F210" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G210" s="19"/>
       <c r="H210" s="19"/>
@@ -6979,10 +6985,10 @@
       </c>
       <c r="S210" s="15"/>
       <c r="T210" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U210" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,28 +6997,28 @@
       <c r="D211" s="20"/>
       <c r="E211" s="20"/>
       <c r="F211" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G211" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I211" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J211" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K211" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L211" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M211" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N211" s="19" t="s">
         <v>30</v>
@@ -7024,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="R211" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S211" s="15"/>
       <c r="T211" s="15"/>
@@ -7036,7 +7042,7 @@
       <c r="D212" s="20"/>
       <c r="E212" s="20"/>
       <c r="F212" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G212" s="19"/>
       <c r="H212" s="19"/>
@@ -7056,7 +7062,7 @@
       </c>
       <c r="R212" s="15"/>
       <c r="S212" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T212" s="15"/>
       <c r="U212" s="15"/>
@@ -7067,7 +7073,7 @@
       <c r="D213" s="20"/>
       <c r="E213" s="20"/>
       <c r="F213" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G213" s="19"/>
       <c r="H213" s="19"/>
@@ -7087,7 +7093,7 @@
       </c>
       <c r="R213" s="15"/>
       <c r="S213" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T213" s="15"/>
       <c r="U213" s="15"/>
@@ -7098,7 +7104,7 @@
       <c r="D214" s="20"/>
       <c r="E214" s="20"/>
       <c r="F214" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G214" s="19"/>
       <c r="H214" s="19"/>
@@ -7118,7 +7124,7 @@
       </c>
       <c r="R214" s="15"/>
       <c r="S214" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T214" s="15"/>
       <c r="U214" s="15"/>
@@ -7129,7 +7135,7 @@
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G215" s="19"/>
       <c r="H215" s="19"/>
@@ -7149,7 +7155,7 @@
       </c>
       <c r="R215" s="15"/>
       <c r="S215" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T215" s="15"/>
       <c r="U215" s="15"/>
@@ -7160,7 +7166,7 @@
       <c r="D216" s="20"/>
       <c r="E216" s="20"/>
       <c r="F216" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
@@ -7180,7 +7186,7 @@
       </c>
       <c r="R216" s="15"/>
       <c r="S216" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T216" s="15"/>
       <c r="U216" s="15"/>
@@ -7191,7 +7197,7 @@
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G217" s="19"/>
       <c r="H217" s="19"/>
@@ -7211,7 +7217,7 @@
       </c>
       <c r="R217" s="15"/>
       <c r="S217" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T217" s="15"/>
       <c r="U217" s="15"/>
@@ -7222,7 +7228,7 @@
       <c r="D218" s="20"/>
       <c r="E218" s="20"/>
       <c r="F218" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="19"/>
@@ -7242,7 +7248,7 @@
       </c>
       <c r="R218" s="15"/>
       <c r="S218" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T218" s="15"/>
       <c r="U218" s="15"/>
@@ -7253,7 +7259,7 @@
       <c r="D219" s="20"/>
       <c r="E219" s="20"/>
       <c r="F219" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G219" s="19"/>
       <c r="H219" s="19"/>
@@ -7273,7 +7279,7 @@
       </c>
       <c r="R219" s="15"/>
       <c r="S219" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T219" s="15"/>
       <c r="U219" s="15"/>
@@ -7284,7 +7290,7 @@
       <c r="D220" s="20"/>
       <c r="E220" s="20"/>
       <c r="F220" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G220" s="19"/>
       <c r="H220" s="19"/>
@@ -7303,14 +7309,14 @@
         <v>3</v>
       </c>
       <c r="R220" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S220" s="15"/>
       <c r="T220" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U220" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7319,7 +7325,7 @@
       <c r="D221" s="20"/>
       <c r="E221" s="20"/>
       <c r="F221" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
@@ -7338,14 +7344,14 @@
         <v>3</v>
       </c>
       <c r="R221" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S221" s="15"/>
       <c r="T221" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="U221" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7354,7 +7360,7 @@
       <c r="D222" s="20"/>
       <c r="E222" s="20"/>
       <c r="F222" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G222" s="19"/>
       <c r="H222" s="19"/>
@@ -7373,14 +7379,14 @@
         <v>3</v>
       </c>
       <c r="R222" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S222" s="15"/>
       <c r="T222" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U222" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7389,7 +7395,7 @@
       <c r="D223" s="20"/>
       <c r="E223" s="20"/>
       <c r="F223" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G223" s="19"/>
       <c r="H223" s="19"/>
@@ -7409,7 +7415,7 @@
       </c>
       <c r="R223" s="15"/>
       <c r="S223" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T223" s="15"/>
       <c r="U223" s="15"/>
@@ -7420,7 +7426,7 @@
       <c r="D224" s="20"/>
       <c r="E224" s="20"/>
       <c r="F224" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="19"/>
@@ -7440,7 +7446,7 @@
       </c>
       <c r="R224" s="15"/>
       <c r="S224" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T224" s="15"/>
       <c r="U224" s="15"/>
@@ -7451,7 +7457,7 @@
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G225" s="19"/>
       <c r="H225" s="19"/>
@@ -7471,7 +7477,7 @@
       </c>
       <c r="R225" s="15"/>
       <c r="S225" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T225" s="15"/>
       <c r="U225" s="15"/>
@@ -7482,7 +7488,7 @@
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
       <c r="F226" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
@@ -7502,7 +7508,7 @@
       </c>
       <c r="R226" s="15"/>
       <c r="S226" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T226" s="15"/>
       <c r="U226" s="15"/>
@@ -7513,7 +7519,7 @@
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G227" s="19"/>
       <c r="H227" s="19"/>
@@ -7533,7 +7539,7 @@
       </c>
       <c r="R227" s="15"/>
       <c r="S227" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T227" s="15"/>
       <c r="U227" s="15"/>
@@ -7633,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="R231" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S231" s="31"/>
       <c r="T231" s="15"/>
@@ -7663,7 +7669,7 @@
         <v>2</v>
       </c>
       <c r="R232" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S232" s="15"/>
       <c r="T232" s="15"/>
@@ -7720,7 +7726,7 @@
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -7777,28 +7783,28 @@
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G237" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H237" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I237" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J237" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K237" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L237" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M237" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N237" s="19" t="s">
         <v>30</v>
@@ -7810,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="R237" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S237" s="15"/>
       <c r="T237" s="15"/>
@@ -7822,7 +7828,7 @@
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
       <c r="F238" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G238" s="19"/>
       <c r="H238" s="19"/>
@@ -7841,14 +7847,14 @@
         <v>3</v>
       </c>
       <c r="R238" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S238" s="15"/>
       <c r="T238" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U238" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7857,7 +7863,7 @@
       <c r="D239" s="20"/>
       <c r="E239" s="20"/>
       <c r="F239" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G239" s="19"/>
       <c r="H239" s="19"/>
@@ -7876,14 +7882,14 @@
         <v>3</v>
       </c>
       <c r="R239" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S239" s="15"/>
       <c r="T239" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U239" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7892,7 +7898,7 @@
       <c r="D240" s="20"/>
       <c r="E240" s="20"/>
       <c r="F240" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G240" s="19"/>
       <c r="H240" s="19"/>
@@ -7912,7 +7918,7 @@
       </c>
       <c r="R240" s="15"/>
       <c r="S240" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T240" s="15"/>
       <c r="U240" s="15"/>
@@ -7923,7 +7929,7 @@
       <c r="D241" s="20"/>
       <c r="E241" s="20"/>
       <c r="F241" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G241" s="19"/>
       <c r="H241" s="19"/>
@@ -7943,7 +7949,7 @@
       </c>
       <c r="R241" s="15"/>
       <c r="S241" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T241" s="15"/>
       <c r="U241" s="15"/>
@@ -7954,7 +7960,7 @@
       <c r="D242" s="20"/>
       <c r="E242" s="20"/>
       <c r="F242" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G242" s="19"/>
       <c r="H242" s="19"/>
@@ -7974,7 +7980,7 @@
       </c>
       <c r="R242" s="15"/>
       <c r="S242" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T242" s="15"/>
       <c r="U242" s="15"/>
@@ -7985,7 +7991,7 @@
       <c r="D243" s="20"/>
       <c r="E243" s="20"/>
       <c r="F243" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G243" s="19"/>
       <c r="H243" s="19"/>
@@ -8005,7 +8011,7 @@
       </c>
       <c r="R243" s="15"/>
       <c r="S243" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T243" s="15"/>
       <c r="U243" s="15"/>
@@ -8016,7 +8022,7 @@
       <c r="D244" s="20"/>
       <c r="E244" s="20"/>
       <c r="F244" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G244" s="19"/>
       <c r="H244" s="19"/>
@@ -8036,7 +8042,7 @@
       </c>
       <c r="R244" s="15"/>
       <c r="S244" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T244" s="15"/>
       <c r="U244" s="15"/>
@@ -8047,7 +8053,7 @@
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G245" s="19"/>
       <c r="H245" s="19"/>
@@ -8067,7 +8073,7 @@
       </c>
       <c r="R245" s="15"/>
       <c r="S245" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T245" s="15"/>
       <c r="U245" s="15"/>
@@ -8168,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="R249" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S249" s="15"/>
       <c r="T249" s="15"/>
@@ -8198,7 +8204,7 @@
         <v>2</v>
       </c>
       <c r="R250" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S250" s="15"/>
       <c r="T250" s="15"/>
@@ -8255,7 +8261,7 @@
       <c r="D253" s="20"/>
       <c r="E253" s="20"/>
       <c r="F253" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20"/>
@@ -8312,7 +8318,7 @@
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G255" s="19"/>
       <c r="H255" s="19"/>
@@ -8343,7 +8349,7 @@
       <c r="D256" s="20"/>
       <c r="E256" s="20"/>
       <c r="F256" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G256" s="19"/>
       <c r="H256" s="19"/>
@@ -8362,14 +8368,14 @@
         <v>1</v>
       </c>
       <c r="R256" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S256" s="15"/>
       <c r="T256" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U256" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8378,7 +8384,7 @@
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G257" s="19"/>
       <c r="H257" s="19"/>
@@ -8409,7 +8415,7 @@
       <c r="D258" s="20"/>
       <c r="E258" s="20"/>
       <c r="F258" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G258" s="19"/>
       <c r="H258" s="19"/>
@@ -8428,14 +8434,14 @@
         <v>1</v>
       </c>
       <c r="R258" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S258" s="15"/>
       <c r="T258" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U258" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8444,20 +8450,20 @@
       <c r="D259" s="20"/>
       <c r="E259" s="20"/>
       <c r="F259" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G259" s="19"/>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
       <c r="K259" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L259" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M259" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N259" s="19" t="s">
         <v>30</v>
@@ -8469,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="R259" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S259" s="15"/>
       <c r="T259" s="15"/>
@@ -8571,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="R263" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S263" s="15"/>
       <c r="T263" s="15"/>
@@ -8601,7 +8607,7 @@
         <v>2</v>
       </c>
       <c r="R264" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S264" s="15"/>
       <c r="T264" s="15"/>
@@ -8658,7 +8664,7 @@
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20"/>
@@ -8715,20 +8721,20 @@
       <c r="D269" s="20"/>
       <c r="E269" s="20"/>
       <c r="F269" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G269" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H269" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K269" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L269" s="19"/>
       <c r="M269" s="19"/>
@@ -8742,10 +8748,10 @@
         <v>1</v>
       </c>
       <c r="R269" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S269" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T269" s="15"/>
       <c r="U269" s="15"/>
@@ -8756,7 +8762,7 @@
       <c r="D270" s="20"/>
       <c r="E270" s="20"/>
       <c r="F270" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G270" s="19"/>
       <c r="H270" s="19"/>
@@ -8778,7 +8784,7 @@
         <v>50</v>
       </c>
       <c r="S270" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T270" s="15"/>
       <c r="U270" s="15"/>
@@ -8789,7 +8795,7 @@
       <c r="D271" s="20"/>
       <c r="E271" s="20"/>
       <c r="F271" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G271" s="19"/>
       <c r="H271" s="19"/>
@@ -8805,16 +8811,16 @@
         <v>59</v>
       </c>
       <c r="P271" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R271" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S271" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T271" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U271" s="15"/>
     </row>
@@ -8913,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="R275" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S275" s="15"/>
       <c r="T275" s="15"/>
@@ -8943,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="R276" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S276" s="15"/>
       <c r="T276" s="15"/>
@@ -9000,7 +9006,7 @@
       <c r="D279" s="20"/>
       <c r="E279" s="20"/>
       <c r="F279" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20"/>
@@ -9057,20 +9063,20 @@
       <c r="D281" s="20"/>
       <c r="E281" s="20"/>
       <c r="F281" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G281" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H281" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I281" s="19"/>
       <c r="J281" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K281" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L281" s="19"/>
       <c r="M281" s="19"/>
@@ -9087,7 +9093,7 @@
         <v>34</v>
       </c>
       <c r="S281" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T281" s="15"/>
       <c r="U281" s="15"/>
@@ -9098,7 +9104,7 @@
       <c r="D282" s="20"/>
       <c r="E282" s="20"/>
       <c r="F282" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G282" s="19"/>
       <c r="H282" s="19"/>
@@ -9117,10 +9123,10 @@
         <v>2</v>
       </c>
       <c r="R282" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S282" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T282" s="15"/>
       <c r="U282" s="15"/>
@@ -9131,7 +9137,7 @@
       <c r="D283" s="20"/>
       <c r="E283" s="20"/>
       <c r="F283" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G283" s="19"/>
       <c r="H283" s="19"/>
@@ -9147,19 +9153,19 @@
         <v>59</v>
       </c>
       <c r="P283" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R283" s="15" t="s">
         <v>102</v>
       </c>
       <c r="S283" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T283" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U283" s="32" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9258,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="R287" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S287" s="15"/>
       <c r="T287" s="15"/>
@@ -9288,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="R288" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S288" s="15"/>
       <c r="T288" s="15"/>
@@ -9345,7 +9351,7 @@
       <c r="D291" s="20"/>
       <c r="E291" s="20"/>
       <c r="F291" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -9402,20 +9408,20 @@
       <c r="D293" s="20"/>
       <c r="E293" s="20"/>
       <c r="F293" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G293" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H293" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I293" s="19"/>
       <c r="J293" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K293" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L293" s="19"/>
       <c r="M293" s="19"/>
@@ -9432,7 +9438,7 @@
         <v>32</v>
       </c>
       <c r="S293" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T293" s="15"/>
       <c r="U293" s="15"/>
@@ -9443,7 +9449,7 @@
       <c r="D294" s="20"/>
       <c r="E294" s="20"/>
       <c r="F294" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G294" s="19"/>
       <c r="H294" s="19"/>
@@ -9462,10 +9468,10 @@
         <v>2</v>
       </c>
       <c r="R294" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S294" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T294" s="15"/>
       <c r="U294" s="15"/>
@@ -9476,7 +9482,7 @@
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G295" s="19"/>
       <c r="H295" s="19"/>
@@ -9492,19 +9498,19 @@
         <v>59</v>
       </c>
       <c r="P295" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R295" s="15" t="s">
         <v>102</v>
       </c>
       <c r="S295" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T295" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U295" s="32" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="R299" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S299" s="15"/>
       <c r="T299" s="15"/>
@@ -9632,7 +9638,7 @@
         <v>2</v>
       </c>
       <c r="R300" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S300" s="15"/>
       <c r="T300" s="15"/>
@@ -9689,7 +9695,7 @@
       <c r="D303" s="20"/>
       <c r="E303" s="20"/>
       <c r="F303" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20"/>
@@ -9746,20 +9752,20 @@
       <c r="D305" s="20"/>
       <c r="E305" s="20"/>
       <c r="F305" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G305" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H305" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I305" s="19"/>
       <c r="J305" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K305" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L305" s="19"/>
       <c r="M305" s="19"/>
@@ -9776,7 +9782,7 @@
         <v>40</v>
       </c>
       <c r="S305" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T305" s="15"/>
       <c r="U305" s="15"/>
@@ -9787,7 +9793,7 @@
       <c r="D306" s="20"/>
       <c r="E306" s="20"/>
       <c r="F306" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G306" s="19"/>
       <c r="H306" s="19"/>
@@ -9806,10 +9812,10 @@
         <v>2</v>
       </c>
       <c r="R306" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S306" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T306" s="15"/>
       <c r="U306" s="15"/>
@@ -9820,7 +9826,7 @@
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G307" s="19"/>
       <c r="H307" s="19"/>
@@ -9836,19 +9842,19 @@
         <v>59</v>
       </c>
       <c r="P307" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R307" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S307" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T307" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U307" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9946,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="R311" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S311" s="15"/>
       <c r="T311" s="15"/>
@@ -9976,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="R312" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S312" s="15"/>
       <c r="T312" s="15"/>
@@ -10033,7 +10039,7 @@
       <c r="D315" s="20"/>
       <c r="E315" s="20"/>
       <c r="F315" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20"/>
@@ -10090,20 +10096,20 @@
       <c r="D317" s="20"/>
       <c r="E317" s="20"/>
       <c r="F317" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G317" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H317" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I317" s="19"/>
       <c r="J317" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K317" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L317" s="19"/>
       <c r="M317" s="19"/>
@@ -10117,10 +10123,10 @@
         <v>1</v>
       </c>
       <c r="R317" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S317" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T317" s="15"/>
       <c r="U317" s="15"/>
@@ -10131,7 +10137,7 @@
       <c r="D318" s="20"/>
       <c r="E318" s="20"/>
       <c r="F318" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G318" s="19"/>
       <c r="H318" s="19"/>
@@ -10150,10 +10156,10 @@
         <v>2</v>
       </c>
       <c r="R318" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S318" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T318" s="15"/>
       <c r="U318" s="15"/>
@@ -10164,7 +10170,7 @@
       <c r="D319" s="20"/>
       <c r="E319" s="20"/>
       <c r="F319" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G319" s="19"/>
       <c r="H319" s="19"/>
@@ -10180,19 +10186,19 @@
         <v>59</v>
       </c>
       <c r="P319" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R319" s="15" t="s">
         <v>102</v>
       </c>
       <c r="S319" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T319" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U319" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10290,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="R323" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S323" s="15"/>
       <c r="T323" s="15"/>
@@ -10320,7 +10326,7 @@
         <v>2</v>
       </c>
       <c r="R324" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S324" s="15"/>
       <c r="T324" s="15"/>
@@ -10377,7 +10383,7 @@
       <c r="D327" s="20"/>
       <c r="E327" s="20"/>
       <c r="F327" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20"/>
@@ -10434,20 +10440,20 @@
       <c r="D329" s="20"/>
       <c r="E329" s="20"/>
       <c r="F329" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G329" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H329" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I329" s="19"/>
       <c r="J329" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K329" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L329" s="19"/>
       <c r="M329" s="19"/>
@@ -10461,10 +10467,10 @@
         <v>1</v>
       </c>
       <c r="R329" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S329" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T329" s="15"/>
       <c r="U329" s="15"/>
@@ -10475,7 +10481,7 @@
       <c r="D330" s="20"/>
       <c r="E330" s="20"/>
       <c r="F330" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G330" s="19"/>
       <c r="H330" s="19"/>
@@ -10494,10 +10500,10 @@
         <v>2</v>
       </c>
       <c r="R330" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S330" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T330" s="15"/>
       <c r="U330" s="15"/>
@@ -10508,7 +10514,7 @@
       <c r="D331" s="20"/>
       <c r="E331" s="20"/>
       <c r="F331" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G331" s="19"/>
       <c r="H331" s="19"/>
@@ -10524,19 +10530,19 @@
         <v>59</v>
       </c>
       <c r="P331" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R331" s="15" t="s">
         <v>102</v>
       </c>
       <c r="S331" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T331" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="U331" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10634,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="R335" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S335" s="15"/>
       <c r="T335" s="15"/>
@@ -10664,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="R336" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S336" s="15"/>
       <c r="T336" s="15"/>
@@ -10721,7 +10727,7 @@
       <c r="D339" s="20"/>
       <c r="E339" s="20"/>
       <c r="F339" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G339" s="20"/>
       <c r="H339" s="20"/>
@@ -10778,20 +10784,20 @@
       <c r="D341" s="20"/>
       <c r="E341" s="20"/>
       <c r="F341" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G341" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H341" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I341" s="19"/>
       <c r="J341" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K341" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L341" s="19"/>
       <c r="M341" s="19"/>
@@ -10805,10 +10811,10 @@
         <v>1</v>
       </c>
       <c r="R341" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S341" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T341" s="15"/>
       <c r="U341" s="15"/>
@@ -10819,7 +10825,7 @@
       <c r="D342" s="20"/>
       <c r="E342" s="20"/>
       <c r="F342" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G342" s="19"/>
       <c r="H342" s="19"/>
@@ -10838,10 +10844,10 @@
         <v>2</v>
       </c>
       <c r="R342" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S342" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T342" s="15"/>
       <c r="U342" s="15"/>
@@ -10852,7 +10858,7 @@
       <c r="D343" s="20"/>
       <c r="E343" s="20"/>
       <c r="F343" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G343" s="19"/>
       <c r="H343" s="19"/>
@@ -10868,19 +10874,19 @@
         <v>59</v>
       </c>
       <c r="P343" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R343" s="15" t="s">
         <v>102</v>
       </c>
       <c r="S343" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T343" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U343" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10978,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="R347" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S347" s="15"/>
       <c r="T347" s="15"/>
@@ -11008,7 +11014,7 @@
         <v>2</v>
       </c>
       <c r="R348" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S348" s="15"/>
       <c r="T348" s="15"/>
@@ -11065,7 +11071,7 @@
       <c r="D351" s="20"/>
       <c r="E351" s="20"/>
       <c r="F351" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G351" s="20"/>
       <c r="H351" s="20"/>
@@ -11122,20 +11128,20 @@
       <c r="D353" s="20"/>
       <c r="E353" s="20"/>
       <c r="F353" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G353" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H353" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I353" s="19"/>
       <c r="J353" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K353" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L353" s="19"/>
       <c r="M353" s="19"/>
@@ -11152,7 +11158,7 @@
         <v>34</v>
       </c>
       <c r="S353" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T353" s="15"/>
       <c r="U353" s="15"/>
@@ -11163,7 +11169,7 @@
       <c r="D354" s="20"/>
       <c r="E354" s="20"/>
       <c r="F354" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G354" s="19"/>
       <c r="H354" s="19"/>
@@ -11182,10 +11188,10 @@
         <v>2</v>
       </c>
       <c r="R354" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S354" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T354" s="15"/>
       <c r="U354" s="15"/>
@@ -11196,7 +11202,7 @@
       <c r="D355" s="20"/>
       <c r="E355" s="20"/>
       <c r="F355" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G355" s="19"/>
       <c r="H355" s="19"/>
@@ -11212,16 +11218,16 @@
         <v>59</v>
       </c>
       <c r="P355" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R355" s="15" t="s">
         <v>102</v>
       </c>
       <c r="S355" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T355" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U355" s="15"/>
     </row>
@@ -11320,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="R359" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S359" s="15"/>
       <c r="T359" s="15"/>
@@ -11350,7 +11356,7 @@
         <v>2</v>
       </c>
       <c r="R360" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S360" s="15"/>
       <c r="T360" s="15"/>
@@ -11407,7 +11413,7 @@
       <c r="D363" s="20"/>
       <c r="E363" s="20"/>
       <c r="F363" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G363" s="20"/>
       <c r="H363" s="20"/>
@@ -11464,20 +11470,20 @@
       <c r="D365" s="20"/>
       <c r="E365" s="20"/>
       <c r="F365" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G365" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H365" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I365" s="19"/>
       <c r="J365" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K365" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L365" s="19"/>
       <c r="M365" s="19"/>
@@ -11494,7 +11500,7 @@
         <v>32</v>
       </c>
       <c r="S365" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T365" s="15"/>
       <c r="U365" s="15"/>
@@ -11505,7 +11511,7 @@
       <c r="D366" s="20"/>
       <c r="E366" s="20"/>
       <c r="F366" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G366" s="19"/>
       <c r="H366" s="19"/>
@@ -11524,10 +11530,10 @@
         <v>2</v>
       </c>
       <c r="R366" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S366" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T366" s="15"/>
       <c r="U366" s="15"/>
@@ -11538,7 +11544,7 @@
       <c r="D367" s="20"/>
       <c r="E367" s="20"/>
       <c r="F367" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G367" s="19"/>
       <c r="H367" s="19"/>
@@ -11554,16 +11560,16 @@
         <v>59</v>
       </c>
       <c r="P367" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R367" s="15" t="s">
         <v>102</v>
       </c>
       <c r="S367" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T367" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U367" s="15"/>
     </row>
@@ -11705,7 +11711,7 @@
     </row>
     <row r="375" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
@@ -11724,7 +11730,7 @@
         <v>0.2</v>
       </c>
       <c r="R375" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S375" s="15"/>
       <c r="T375" s="15"/>
@@ -11732,7 +11738,7 @@
     </row>
     <row r="377" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12075,7 +12081,7 @@
     <row r="395" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="17"/>
       <c r="C395" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D395" s="17"/>
       <c r="E395" s="17"/>
@@ -12126,7 +12132,7 @@
     <row r="397" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B397" s="17"/>
       <c r="C397" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D397" s="19"/>
       <c r="E397" s="19"/>
@@ -12148,7 +12154,7 @@
     <row r="398" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B398" s="17"/>
       <c r="C398" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D398" s="19"/>
       <c r="E398" s="19"/>
@@ -12652,7 +12658,7 @@
       <c r="D420" s="20"/>
       <c r="E420" s="20"/>
       <c r="F420" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G420" s="20"/>
       <c r="H420" s="20"/>
@@ -12707,7 +12713,7 @@
       <c r="D422" s="20"/>
       <c r="E422" s="20"/>
       <c r="F422" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G422" s="19"/>
       <c r="H422" s="19"/>
@@ -12732,7 +12738,7 @@
       <c r="D423" s="20"/>
       <c r="E423" s="20"/>
       <c r="F423" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G423" s="19"/>
       <c r="H423" s="19"/>
@@ -12768,7 +12774,7 @@
     <row r="425" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="17"/>
       <c r="C425" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D425" s="20"/>
       <c r="E425" s="20"/>
@@ -12871,7 +12877,7 @@
     </row>
     <row r="431" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B431" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
@@ -12892,12 +12898,12 @@
     </row>
     <row r="433" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B434" s="35"/>
       <c r="C434" s="35"/>
@@ -13153,7 +13159,7 @@
         <v>2</v>
       </c>
       <c r="M448" s="38" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13303,12 +13309,12 @@
         <v>60</v>
       </c>
       <c r="M455" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B456" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C456" s="37"/>
       <c r="D456" s="37"/>
@@ -13327,17 +13333,17 @@
         <v>0.2</v>
       </c>
       <c r="M456" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B459" s="35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C459" s="35"/>
       <c r="D459" s="35"/>
@@ -13694,7 +13700,7 @@
     <row r="478" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="17"/>
       <c r="C478" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D478" s="17"/>
       <c r="E478" s="17"/>
@@ -13745,7 +13751,7 @@
     <row r="480" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B480" s="17"/>
       <c r="C480" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D480" s="19"/>
       <c r="E480" s="19"/>
@@ -13767,7 +13773,7 @@
     <row r="481" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B481" s="17"/>
       <c r="C481" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D481" s="19"/>
       <c r="E481" s="19"/>
@@ -13808,7 +13814,7 @@
         <v>65</v>
       </c>
       <c r="N482" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13833,7 +13839,7 @@
         <v>65</v>
       </c>
       <c r="N483" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13874,7 +13880,7 @@
         <v>65</v>
       </c>
       <c r="N485" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13907,7 +13913,7 @@
     </row>
     <row r="488" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B488" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
